--- a/test.xlsx
+++ b/test.xlsx
@@ -423,7 +423,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -436,7 +436,7 @@
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
     <col min="11" max="11" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" customWidth="1"/>
   </cols>
@@ -504,7 +504,7 @@
       <c r="I2" t="s">
         <v>4</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="2">
         <v>9999999999</v>
       </c>
       <c r="K2" t="s">

--- a/test.xlsx
+++ b/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Nitin</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>9999999999</t>
   </si>
 </sst>
 </file>
@@ -423,7 +426,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -504,8 +507,8 @@
       <c r="I2" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="2">
-        <v>9999999999</v>
+      <c r="J2" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="K2" t="s">
         <v>5</v>
